--- a/benchmarks/results.xlsx
+++ b/benchmarks/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Uni\sql_optimizer\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87FDFEB-542F-49FD-B43F-FAD7E371BA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809E775-43A5-4AE4-8235-6D21DE910476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21795" yWindow="-16320" windowWidth="38640" windowHeight="15720" tabRatio="608" firstSheet="6" activeTab="11" xr2:uid="{F58B29FC-FFD6-4C63-B1F9-1E1F23407971}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" tabRatio="608" firstSheet="6" activeTab="11" xr2:uid="{F58B29FC-FFD6-4C63-B1F9-1E1F23407971}"/>
   </bookViews>
   <sheets>
     <sheet name="postgresql_throughput" sheetId="2" state="hidden" r:id="rId1"/>
@@ -36,7 +36,6 @@
     <definedName name="ExternalData_3" localSheetId="4" hidden="1">no_latency_results!$A$1:$L$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="141">
   <si>
     <t>query</t>
   </si>
@@ -512,6 +511,9 @@
   </si>
   <si>
     <t>best_decoupled</t>
+  </si>
+  <si>
+    <t>Umbra</t>
   </si>
 </sst>
 </file>
@@ -634,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,7 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,15 +1283,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>1827.1551802894619</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>137572.60776520942</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>8949.7916687383786</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>113</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>18938.297973076049</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>13343.068831703133</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>11581.632817200012</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>9434.7287122381531</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>10236.840683479728</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>2730.4644747610273</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>6538.1318377962134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>31546.570624884986</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>7609.8192033787591</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>7385.5546756715721</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>11531.513062641743</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>10153.257785574478</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>14938.937094625719</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>2186.2250815887055</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>1278.3046839214128</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>8674.0090547016734</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>131</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>1182.9170998552897</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>6827.3107602210539</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>130</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>16826.597241372863</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>2792.2864637708585</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>2077.072066900183</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>1242.0688727189925</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1685,12 +1686,12 @@
       <selection activeCell="I2" sqref="I2:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -1734,7 +1735,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -1781,7 +1782,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -1805,7 +1806,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -1823,7 +1824,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -1860,7 +1861,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -1878,7 +1879,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -1898,7 +1899,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -1917,7 +1918,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -1935,7 +1936,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -1953,7 +1954,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -1972,7 +1973,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -1991,7 +1992,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -2028,7 +2029,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -2094,7 +2095,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -2147,7 +2148,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -2184,12 +2185,12 @@
       <selection sqref="A1:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>1722.9390000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>25.172000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>397.71800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>113</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>183.245</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>215.67699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>266.46600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>316.87700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>341.34899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>1013.153</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>555.32000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>107.163</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>383.92700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>488.15300000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>276.14400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>335.05700000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>235.11</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>1644.635</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>3084.97</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>373.00900000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>131</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>3046.4180000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
@@ -3092,7 +3093,7 @@
       </c>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>130</v>
       </c>
@@ -3134,7 +3135,7 @@
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>1380.42</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>1718.9649999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>2906.1089999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3308,18 +3309,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CA3F9-BE31-499E-B842-6237B275E47C}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3335,11 +3336,11 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>1.968529</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>111</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>2.6168E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>0.407889</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>113</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>0.27273899999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>0.31136200000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>0.38214800000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>117</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0.352466</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>1.312821</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>119</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>0.56178300000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>120</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>0.109861</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>121</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>0.46435199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>122</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>0.49095</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>123</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>0.31234100000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>124</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>0.35456199999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>125</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>0.24035499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>126</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>1.646674</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>127</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>2.7172350000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>128</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>0.43301200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>131</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>1.58789</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>129</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>130</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>110</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>111</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>0.637131</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>112</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>113</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>114</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>115</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>116</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>117</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>118</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>119</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>120</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>121</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>122</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>123</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>124</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>125</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>126</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>21.290886</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>127</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>128</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>131</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>1.1128400000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>129</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>6.5364880000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>130</v>
       </c>
@@ -4568,11 +4569,11 @@
       </c>
       <c r="E67" s="11"/>
       <c r="F67">
-        <f t="shared" ref="F67:F89" si="1">MIN(D67,E67)</f>
+        <f t="shared" ref="F67:F111" si="1">MIN(D67,E67)</f>
         <v>936</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>110</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>111</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>112</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>113</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>114</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>115</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>116</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>117</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>118</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>119</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>120</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>121</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>122</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>123</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>124</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>125</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>126</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>127</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>128</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>131</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>129</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>2.1160000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>130</v>
       </c>
@@ -4963,6 +4964,354 @@
       <c r="F89">
         <f t="shared" si="1"/>
         <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90">
+        <v>4.8049000000000001E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91">
+        <v>1.8680000000000001E-3</v>
+      </c>
+      <c r="D91">
+        <v>1.0258E-2</v>
+      </c>
+      <c r="E91">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>2.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92">
+        <v>4.2224999999999999E-2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93">
+        <v>1.8679000000000001E-2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94">
+        <v>2.4573999999999999E-2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95">
+        <v>1.1960999999999999E-2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96">
+        <v>3.2576000000000001E-2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97">
+        <v>2.4364E-2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98">
+        <v>9.9479999999999999E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99">
+        <v>6.1186999999999998E-2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100">
+        <v>6.0790000000000002E-3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101">
+        <v>2.393E-2</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103">
+        <v>1.4588E-2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104">
+        <v>1.3214E-2</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105">
+        <v>3.6886000000000002E-2</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106">
+        <v>4.3972999999999998E-2</v>
+      </c>
+      <c r="D106">
+        <v>3.0505000000000001E-2</v>
+      </c>
+      <c r="E106">
+        <v>4.1711999999999999E-2</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>3.0505000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107">
+        <v>7.4379000000000001E-2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108">
+        <v>2.8393999999999999E-2</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109">
+        <v>1.5419E-2</v>
+      </c>
+      <c r="D109">
+        <v>1.5485000000000001E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.31648500000000002</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>1.5485000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110">
+        <v>6.7805000000000004E-2</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111">
+        <v>2.9718000000000001E-2</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4978,13 +5327,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5004,7 +5353,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>111</v>
       </c>
@@ -5024,7 +5373,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>113</v>
       </c>
@@ -5042,7 +5391,7 @@
         <v>0.63658199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>126</v>
       </c>
@@ -5062,7 +5411,7 @@
         <v>2.2418470000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>131</v>
       </c>
@@ -5082,7 +5431,7 @@
         <v>1.5863050000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>129</v>
       </c>
@@ -5100,7 +5449,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>130</v>
       </c>
@@ -5117,7 +5466,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>111</v>
       </c>
@@ -5137,7 +5486,7 @@
         <v>2.6168E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>113</v>
       </c>
@@ -5155,7 +5504,7 @@
         <v>0.28076999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>126</v>
       </c>
@@ -5175,7 +5524,7 @@
         <v>1.646674</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>131</v>
       </c>
@@ -5195,7 +5544,7 @@
         <v>1.58789</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>129</v>
       </c>
@@ -5213,7 +5562,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>130</v>
       </c>
@@ -5230,7 +5579,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>111</v>
       </c>
@@ -5250,7 +5599,7 @@
         <v>2.6127999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>113</v>
       </c>
@@ -5268,7 +5617,7 @@
         <v>0.225802</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>126</v>
       </c>
@@ -5288,7 +5637,7 @@
         <v>1.6775499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>131</v>
       </c>
@@ -5308,7 +5657,7 @@
         <v>1.588263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
@@ -5326,7 +5675,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>130</v>
       </c>
@@ -5344,7 +5693,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>111</v>
       </c>
@@ -5364,7 +5713,7 @@
         <v>2.5172E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>113</v>
       </c>
@@ -5382,7 +5731,7 @@
         <v>0.22603999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>126</v>
       </c>
@@ -5402,7 +5751,7 @@
         <v>1.6446350000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>131</v>
       </c>
@@ -5422,7 +5771,7 @@
         <v>0.88825900000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>129</v>
       </c>
@@ -5440,7 +5789,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>130</v>
       </c>
@@ -5471,14 +5820,14 @@
       <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +5841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -5503,7 +5852,7 @@
         <v>1.968529</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -5517,7 +5866,7 @@
         <v>2.6168E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -5528,7 +5877,7 @@
         <v>0.407889</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>113</v>
       </c>
@@ -5542,7 +5891,7 @@
         <v>0.19009100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -5553,7 +5902,7 @@
         <v>0.27273899999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -5567,7 +5916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -5578,7 +5927,7 @@
         <v>0.38214800000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -5589,7 +5938,7 @@
         <v>0.352466</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -5600,7 +5949,7 @@
         <v>1.312821</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -5611,7 +5960,7 @@
         <v>0.56178300000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -5622,7 +5971,7 @@
         <v>0.109861</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -5633,7 +5982,7 @@
         <v>0.46435199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -5644,7 +5993,7 @@
         <v>0.49095</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -5655,7 +6004,7 @@
         <v>0.31234100000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -5666,7 +6015,7 @@
         <v>0.35456199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -5677,7 +6026,7 @@
         <v>0.24035499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
@@ -5691,7 +6040,7 @@
         <v>1.646674</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -5702,7 +6051,7 @@
         <v>2.7172350000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -5713,7 +6062,7 @@
         <v>0.43301200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>131</v>
       </c>
@@ -5727,7 +6076,7 @@
         <v>3.0433240000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
@@ -5738,7 +6087,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>130</v>
       </c>
@@ -5766,16 +6115,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5789,7 +6138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -5799,7 +6148,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -5813,7 +6162,7 @@
         <v>69365.498371837617</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -5823,7 +6172,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -5835,7 +6184,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -5845,7 +6194,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -5855,7 +6204,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -5865,7 +6214,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -5875,7 +6224,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -5885,7 +6234,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -5895,7 +6244,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -5905,7 +6254,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -5915,7 +6264,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -5925,7 +6274,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -5935,7 +6284,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -5945,7 +6294,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -5955,7 +6304,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -5969,7 +6318,7 @@
         <v>8369.0373514786461</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -5979,7 +6328,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -5989,7 +6338,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -6003,7 +6352,7 @@
         <v>3773.090527970654</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -6015,7 +6364,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -6040,15 +6389,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6062,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -6072,7 +6421,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -6086,7 +6435,7 @@
         <v>3293.8377784894092</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -6096,7 +6445,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -6108,7 +6457,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -6118,7 +6467,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -6128,7 +6477,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -6138,7 +6487,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -6148,7 +6497,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -6158,7 +6507,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -6168,7 +6517,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -6178,7 +6527,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -6188,7 +6537,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -6198,7 +6547,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -6208,7 +6557,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -6218,7 +6567,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -6228,7 +6577,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -6242,7 +6591,7 @@
         <v>169.0864344489938</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -6252,7 +6601,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -6262,7 +6611,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -6276,7 +6625,7 @@
         <v>3234.9663922935911</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -6288,7 +6637,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -6313,15 +6662,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +6684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -6345,7 +6694,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -6359,7 +6708,7 @@
         <v>51428.571428571428</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -6369,7 +6718,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -6381,7 +6730,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -6391,7 +6740,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -6401,7 +6750,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -6411,7 +6760,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -6421,7 +6770,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -6431,7 +6780,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -6441,7 +6790,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -6451,7 +6800,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -6461,7 +6810,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -6471,7 +6820,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -6481,7 +6830,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -6491,7 +6840,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -6501,7 +6850,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -6515,7 +6864,7 @@
         <v>148.14814814814815</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -6525,7 +6874,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -6535,7 +6884,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -6549,7 +6898,7 @@
         <v>227.84810126582275</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -6561,7 +6910,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -6586,23 +6935,23 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -6643,7 +6992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.45</v>
       </c>
@@ -6685,7 +7034,7 @@
         <v>0.18924999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.3879999999999999</v>
       </c>
@@ -6727,7 +7076,7 @@
         <v>0.18975000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.319</v>
       </c>
@@ -6769,7 +7118,7 @@
         <v>0.1895</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.4800000000000004</v>
       </c>
@@ -6811,7 +7160,7 @@
         <v>0.19024999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.2519999999999998</v>
       </c>
@@ -6853,7 +7202,7 @@
         <v>0.19174999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.2560000000000002</v>
       </c>
@@ -6895,7 +7244,7 @@
         <v>0.20074999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.2610000000000001</v>
       </c>
@@ -6937,7 +7286,7 @@
         <v>0.20774999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.2249999999999996</v>
       </c>
@@ -6979,7 +7328,7 @@
         <v>0.25675000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.1710000000000003</v>
       </c>
@@ -7021,7 +7370,7 @@
         <v>0.31674999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.1769999999999996</v>
       </c>
@@ -7079,23 +7428,23 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -7136,7 +7485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.7969999999999997</v>
       </c>
@@ -7178,7 +7527,7 @@
         <v>0.53249999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.6920000000000002</v>
       </c>
@@ -7220,7 +7569,7 @@
         <v>0.51949999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.5640000000000001</v>
       </c>
@@ -7262,7 +7611,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.7859999999999996</v>
       </c>
@@ -7304,7 +7653,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.5789999999999997</v>
       </c>
@@ -7346,7 +7695,7 @@
         <v>0.44799999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.5839999999999996</v>
       </c>
@@ -7388,7 +7737,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.601</v>
       </c>
@@ -7430,7 +7779,7 @@
         <v>0.39750000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.5739999999999998</v>
       </c>
@@ -7472,7 +7821,7 @@
         <v>0.41925000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.5709999999999997</v>
       </c>
@@ -7514,7 +7863,7 @@
         <v>0.47150000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.9539999999999997</v>
       </c>
@@ -7572,12 +7921,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7603,7 +7952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -7622,7 +7971,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -7653,7 +8002,7 @@
         <v>1.0929500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -7673,7 +8022,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -7697,7 +8046,7 @@
       </c>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -7716,7 +8065,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -7735,7 +8084,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -7755,7 +8104,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -7775,7 +8124,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -7795,7 +8144,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -7814,7 +8163,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -7834,7 +8183,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -7854,7 +8203,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -7874,7 +8223,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -7894,7 +8243,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -7914,7 +8263,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -7934,7 +8283,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -7965,7 +8314,7 @@
         <v>21.290886</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -7985,7 +8334,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -8005,7 +8354,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -8037,7 +8386,7 @@
         <v>1.1128400000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -8063,7 +8412,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -8102,9 +8451,9 @@
       <selection activeCell="C23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8118,7 +8467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -8128,7 +8477,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -8142,7 +8491,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -8152,7 +8501,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -8164,7 +8513,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -8174,7 +8523,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -8184,7 +8533,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -8194,7 +8543,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -8204,7 +8553,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -8214,7 +8563,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -8224,7 +8573,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -8234,7 +8583,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -8244,7 +8593,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -8254,7 +8603,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -8264,7 +8613,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -8274,7 +8623,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -8284,7 +8633,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -8299,7 +8648,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -8309,7 +8658,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -8319,7 +8668,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -8334,7 +8683,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -8346,7 +8695,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -8371,9 +8720,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8390,7 +8739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
@@ -8407,7 +8756,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>111</v>
       </c>
@@ -8424,7 +8773,7 @@
         <v>51428.571428571428</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -8441,7 +8790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>113</v>
       </c>
@@ -8458,7 +8807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
@@ -8475,7 +8824,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -8492,7 +8841,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
@@ -8509,7 +8858,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
@@ -8526,7 +8875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -8543,7 +8892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -8560,7 +8909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
@@ -8577,7 +8926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -8594,7 +8943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -8611,7 +8960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>123</v>
       </c>
@@ -8628,7 +8977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>124</v>
       </c>
@@ -8645,7 +8994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -8662,7 +9011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>126</v>
       </c>
@@ -8679,7 +9028,7 @@
         <v>148.14814814814815</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -8696,7 +9045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -8713,7 +9062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>131</v>
       </c>
@@ -8730,7 +9079,7 @@
         <v>227.84810126582275</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>129</v>
       </c>
@@ -8747,7 +9096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
@@ -8764,7 +9113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
@@ -8781,7 +9130,7 @@
         <v>1827.1551802894619</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>111</v>
       </c>
@@ -8798,7 +9147,7 @@
         <v>137572.6077652094</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
@@ -8815,7 +9164,7 @@
         <v>8949.7916687383768</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>113</v>
       </c>
@@ -8832,7 +9181,7 @@
         <v>18938.297973076053</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -8849,7 +9198,7 @@
         <v>13343.068831703131</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -8866,7 +9215,7 @@
         <v>11581.632817200014</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
@@ -8883,7 +9232,7 @@
         <v>9434.7287122381531</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>117</v>
       </c>
@@ -8900,7 +9249,7 @@
         <v>10236.84068347973</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -8917,7 +9266,7 @@
         <v>2730.4644747610268</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>119</v>
       </c>
@@ -8934,7 +9283,7 @@
         <v>6538.1318377962143</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>120</v>
       </c>
@@ -8951,7 +9300,7 @@
         <v>31546.570624884982</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>121</v>
       </c>
@@ -8968,7 +9317,7 @@
         <v>7609.81920337876</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>122</v>
       </c>
@@ -8985,7 +9334,7 @@
         <v>7385.554675671573</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>123</v>
       </c>
@@ -9002,7 +9351,7 @@
         <v>11531.513062641743</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>124</v>
       </c>
@@ -9019,7 +9368,7 @@
         <v>10153.257785574477</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>125</v>
       </c>
@@ -9036,7 +9385,7 @@
         <v>14938.937094625719</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>126</v>
       </c>
@@ -9053,7 +9402,7 @@
         <v>2186.2250815887055</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>127</v>
       </c>
@@ -9070,7 +9419,7 @@
         <v>1278.3046839214126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>128</v>
       </c>
@@ -9087,7 +9436,7 @@
         <v>8674.0090547016734</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>131</v>
       </c>
@@ -9104,7 +9453,7 @@
         <v>1182.9170998552897</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>129</v>
       </c>
@@ -9121,7 +9470,7 @@
         <v>6827.3107602210539</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>130</v>
       </c>
@@ -9138,7 +9487,7 @@
         <v>16826.597241372863</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>110</v>
       </c>
@@ -9155,7 +9504,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>111</v>
       </c>
@@ -9172,7 +9521,7 @@
         <v>3293.8377784894092</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>112</v>
       </c>
@@ -9189,7 +9538,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>113</v>
       </c>
@@ -9206,7 +9555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>114</v>
       </c>
@@ -9223,7 +9572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>115</v>
       </c>
@@ -9240,7 +9589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>116</v>
       </c>
@@ -9257,7 +9606,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>117</v>
       </c>
@@ -9274,7 +9623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>118</v>
       </c>
@@ -9291,7 +9640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>119</v>
       </c>
@@ -9308,7 +9657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>120</v>
       </c>
@@ -9325,7 +9674,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>121</v>
       </c>
@@ -9342,7 +9691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>122</v>
       </c>
@@ -9359,7 +9708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>123</v>
       </c>
@@ -9376,7 +9725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>124</v>
       </c>
@@ -9393,7 +9742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>125</v>
       </c>
@@ -9410,7 +9759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>126</v>
       </c>
@@ -9427,7 +9776,7 @@
         <v>169.0864344489938</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>127</v>
       </c>
@@ -9444,7 +9793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>128</v>
       </c>
@@ -9461,7 +9810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>131</v>
       </c>
@@ -9478,7 +9827,7 @@
         <v>3234.9663922935911</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>129</v>
       </c>
@@ -9495,7 +9844,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>130</v>
       </c>
@@ -9512,7 +9861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>110</v>
       </c>
@@ -9529,7 +9878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>111</v>
       </c>
@@ -9546,7 +9895,7 @@
         <v>69365.498371837617</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>112</v>
       </c>
@@ -9563,7 +9912,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>113</v>
       </c>
@@ -9580,7 +9929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>114</v>
       </c>
@@ -9597,7 +9946,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>115</v>
       </c>
@@ -9614,7 +9963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>116</v>
       </c>
@@ -9631,7 +9980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>117</v>
       </c>
@@ -9648,7 +9997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>118</v>
       </c>
@@ -9665,7 +10014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>119</v>
       </c>
@@ -9682,7 +10031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>120</v>
       </c>
@@ -9699,7 +10048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>121</v>
       </c>
@@ -9716,7 +10065,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>122</v>
       </c>
@@ -9733,7 +10082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>123</v>
       </c>
@@ -9750,7 +10099,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>124</v>
       </c>
@@ -9767,7 +10116,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>125</v>
       </c>
@@ -9784,7 +10133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>126</v>
       </c>
@@ -9801,7 +10150,7 @@
         <v>8369.0373514786461</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>127</v>
       </c>
@@ -9818,7 +10167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>128</v>
       </c>
@@ -9835,7 +10184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>131</v>
       </c>
@@ -9852,7 +10201,7 @@
         <v>3773.090527970654</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>129</v>
       </c>
@@ -9869,7 +10218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>130</v>
       </c>
